--- a/Excel/zaplata.xlsx
+++ b/Excel/zaplata.xlsx
@@ -79,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ [$лв.-402]"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ [$лв.-402]"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -246,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -263,8 +263,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -272,7 +274,26 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ [$лв.-402]"/>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ [$лв.-402]"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ [$лв.-402]"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -320,6 +341,70 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -356,88 +441,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -452,15 +455,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <tableColumns count="5">
-    <tableColumn id="1" name="Име" dataDxfId="5"/>
-    <tableColumn id="2" name="Заплата" dataDxfId="4"/>
+    <tableColumn id="1" name="Име" dataDxfId="4"/>
+    <tableColumn id="2" name="Заплата" dataDxfId="0"/>
     <tableColumn id="3" name="Рейтинг" dataDxfId="3"/>
-    <tableColumn id="4" name="Бонус %" dataDxfId="1" dataCellStyle="Percent">
+    <tableColumn id="4" name="Бонус %" dataDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>CHOOSE(Table1[[#This Row],[Рейтинг]], 4%, 6%, 8%, 10%)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Годишен бонус" dataDxfId="0">
+    <tableColumn id="5" name="Годишен бонус" dataDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[Заплата]] * Table1[[#This Row],[Бонус %]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -768,13 +771,13 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
@@ -800,7 +803,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="12">
         <v>6000</v>
       </c>
       <c r="C2" s="1">
@@ -819,7 +822,7 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="12">
         <v>8000</v>
       </c>
       <c r="C3" s="1">
@@ -838,7 +841,7 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="12">
         <v>4500</v>
       </c>
       <c r="C4" s="1">
@@ -857,7 +860,7 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="12">
         <v>5500</v>
       </c>
       <c r="C5" s="1">
@@ -876,7 +879,7 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="12">
         <v>7500</v>
       </c>
       <c r="C6" s="1">
@@ -895,7 +898,7 @@
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="12">
         <v>7000</v>
       </c>
       <c r="C7" s="1">
@@ -914,7 +917,7 @@
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="12">
         <v>6500</v>
       </c>
       <c r="C8" s="1">
@@ -933,7 +936,7 @@
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="12">
         <v>4000</v>
       </c>
       <c r="C9" s="1">
@@ -952,7 +955,7 @@
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="13">
         <v>4800</v>
       </c>
       <c r="C10" s="8">
